--- a/log 0912/R_Bookmark 2018 Pilot 2/Results_3th Pilot.xlsx
+++ b/log 0912/R_Bookmark 2018 Pilot 2/Results_3th Pilot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CT" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,11 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,6 +199,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Completion time across 3 phases</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -455,11 +492,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-854010176"/>
-        <c:axId val="-854008000"/>
+        <c:axId val="-1605594736"/>
+        <c:axId val="-1605594192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-854010176"/>
+        <c:axId val="-1605594736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854008000"/>
+        <c:crossAx val="-1605594192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -510,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-854008000"/>
+        <c:axId val="-1605594192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854010176"/>
+        <c:crossAx val="-1605594736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -657,6 +694,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Completion time across 3 blocks</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1017,11 +1084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1074583856"/>
-        <c:axId val="-1074572432"/>
+        <c:axId val="-1605593104"/>
+        <c:axId val="-1605605072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1074583856"/>
+        <c:axId val="-1605593104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1074572432"/>
+        <c:crossAx val="-1605605072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1074572432"/>
+        <c:axId val="-1605605072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1074583856"/>
+        <c:crossAx val="-1605593104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1219,6 +1286,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error across</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 3 phases</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1482,11 +1579,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-854018880"/>
-        <c:axId val="-854013440"/>
+        <c:axId val="-1422402192"/>
+        <c:axId val="-1422406000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-854018880"/>
+        <c:axId val="-1422402192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854013440"/>
+        <c:crossAx val="-1422406000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-854013440"/>
+        <c:axId val="-1422406000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,7 +1685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-854018880"/>
+        <c:crossAx val="-1422402192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,6 +1781,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> across 3 blocks</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2044,11 +2171,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1345533664"/>
-        <c:axId val="-1345532032"/>
+        <c:axId val="-1422405456"/>
+        <c:axId val="-1422412528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1345533664"/>
+        <c:axId val="-1422405456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1345532032"/>
+        <c:crossAx val="-1422412528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2099,7 +2226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1345532032"/>
+        <c:axId val="-1422412528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1345533664"/>
+        <c:crossAx val="-1422405456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4848,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,8 +6097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,16 +6308,16 @@
       <c r="F8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>0</v>
       </c>
     </row>
